--- a/nifi/application/config/xlsx_config/JOB_FR_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/JOB_FR_CONFIG.xlsx
@@ -14,7 +14,7 @@
     <sheet name="CADREMPLOI" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CADREO" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="CAREERBUILDER" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="CGPME-FACEBOOK" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="FACEBOOKMERGED" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="FRANCEEMPLOI" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="INDEED" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="JOBINTREE" sheetId="10" state="visible" r:id="rId11"/>
@@ -22,9 +22,9 @@
     <sheet name="KELJOB" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="LEBONCOINJOBS" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="METEOJOB" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="MONSTER" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="MONSTERMERGED" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="OUESTFRANCEJOBS" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="POLEEMPLOI" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="POLEEMPLOIMERGED" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="QAPA" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="REGIONSJOBS" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="STEPSTONE" sheetId="20" state="visible" r:id="rId21"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="43">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t xml:space="preserve">TYPE_EMPLOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECTEUR</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,6 +830,34 @@
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1828,6 +1862,53 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1867,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1912,51 +1993,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>